--- a/biology/Zoologie/Chabo_(race_de_poule)/Chabo_(race_de_poule).xlsx
+++ b/biology/Zoologie/Chabo_(race_de_poule)/Chabo_(race_de_poule).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La poule « Chabo » (anciennement Nagasaki ou Japonaise) est une race de poule domestique.
@@ -512,16 +524,87 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chabo est une race de poule naine d'ornement, très répandue dans les expositions en France et en Europe; Elle se distingue des autres races par son gène « pattes courtes* », une grande crête et une queue très longue portée haute, 1/3 au-dessus de la tête, surtout chez le coq. Le port du dos est horizontal et l'allure ramassée.  La poule est très docile et bonne couveuse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La chabo est une race de poule naine d'ornement, très répandue dans les expositions en France et en Europe; Elle se distingue des autres races par son gène « pattes courtes* », une grande crête et une queue très longue portée haute, 1/3 au-dessus de la tête, surtout chez le coq. Le port du dos est horizontal et l'allure ramassée.  La poule est très docile et bonne couveuse.
 Les ailes sont tombantes, touchant le sol.
 La chabo est une vraie naine, elle n'a pas d'équivalent en grande race.
-Le gène « pattes courtes » est létal à l'état homozygote, c'est-à-dire que 25 % des poussins meurent dans l'œuf et que 25 % naissent avec les pattes « normales », qu'il faut écarter de la reproduction.
-Origine
-La chabo est une très ancienne race japonaise, présente en Europe depuis 1854.
-Standard officiel
-Masse idéale : Coq : 700g ; Poule : 600g
+Le gène « pattes courtes » est létal à l'état homozygote, c'est-à-dire que 25 % des poussins meurent dans l'œuf et que 25 % naissent avec les pattes « normales », qu'il faut écarter de la reproduction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chabo_(race_de_poule)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chabo_(race_de_poule)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chabo est une très ancienne race japonaise, présente en Europe depuis 1854.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chabo_(race_de_poule)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chabo_(race_de_poule)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard officiel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Masse idéale : Coq : 700g ; Poule : 600g
 Crête : simple (5 crétillons), tombante ou non chez la poule,
 Oreillons : rouges
 Couleur des yeux : rouge à brun-jaunâtre
@@ -537,31 +620,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Chabo_(race_de_poule)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chabo_(race_de_poule)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Club officiel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bantam club français</t>
         </is>
